--- a/public/data/profit/profit_table_south_africa.xlsx
+++ b/public/data/profit/profit_table_south_africa.xlsx
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-36.02</v>
+        <v>-4.89</v>
       </c>
       <c r="F2" t="n">
-        <v>48.14</v>
+        <v>166.06</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-47.93</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-42.13</v>
+        <v>60.77</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-21.07</v>
+        <v>132.85</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.64</v>
+        <v>1503.75</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1365,25 +1365,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-16.53</v>
+        <v>151.92</v>
       </c>
       <c r="U2" t="n">
-        <v>-5.13</v>
+        <v>271.61</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-47.78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.62</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-27.11</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="3">
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-88.42</v>
+        <v>-74.13</v>
       </c>
       <c r="F3" t="n">
-        <v>18.79</v>
+        <v>151.32</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-71.84</v>
+        <v>47.67</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.27</v>
+        <v>1250.4</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1445,25 +1445,25 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-75.43</v>
+        <v>20.57</v>
       </c>
       <c r="U3" t="n">
-        <v>-58.45</v>
+        <v>158.14</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-88.15</v>
+        <v>-40.94</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-105.36</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-80.19</v>
+        <v>-20.72</v>
       </c>
     </row>
     <row r="4">
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-109.25</v>
+        <v>-52.68</v>
       </c>
       <c r="F4" t="n">
-        <v>34.58</v>
+        <v>130.68</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-95.07</v>
+        <v>-1.99</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.89</v>
+        <v>595.77</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-92.02</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-76.4</v>
+        <v>72.37</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-105.36</v>
+        <v>-32.99</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-102.3</v>
+        <v>-28.91</v>
       </c>
     </row>
     <row r="5">
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-71.18</v>
+        <v>-44.17</v>
       </c>
       <c r="F5" t="n">
-        <v>13.84</v>
+        <v>175.75</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-43.53</v>
+        <v>64.99</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>267.8</v>
+        <v>1786.62</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1605,25 +1605,25 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-48.14</v>
+        <v>72.42</v>
       </c>
       <c r="U5" t="n">
-        <v>-22.59</v>
+        <v>147.46</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-57.23</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-62.49</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.12</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-57.1</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="6">
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-44.93</v>
+        <v>-14.38</v>
       </c>
       <c r="F6" t="n">
-        <v>38.26</v>
+        <v>280.8</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-27.5</v>
+        <v>51.89</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.71</v>
+        <v>946.73</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-25.93</v>
+        <v>61.24</v>
       </c>
       <c r="U6" t="n">
-        <v>-20.05</v>
+        <v>44.9</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-45.9</v>
+        <v>-10.59</v>
       </c>
       <c r="X6" t="n">
-        <v>-16.08</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-26.95</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-34.75</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="7">
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-64.5</v>
+        <v>-13.04</v>
       </c>
       <c r="F7" t="n">
-        <v>191.94</v>
+        <v>428</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1741,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-154.45</v>
+        <v>-46.25</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-28.85</v>
+        <v>82.27</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>357.26</v>
+        <v>1078.46</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-29.57</v>
+        <v>69.79</v>
       </c>
       <c r="U7" t="n">
-        <v>13.12</v>
+        <v>207.89</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-44.82</v>
+        <v>-16.45</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-26.75</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-44.75</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="8">
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-14.86</v>
+        <v>64.18</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-17.16</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1845,16 +1845,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-16.78</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-15.11</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-18.8</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-17.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-62.64</v>
+        <v>-31.4</v>
       </c>
       <c r="F9" t="n">
-        <v>39.06</v>
+        <v>193</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-46.54</v>
+        <v>19.31</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>141.47</v>
+        <v>740.07</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-42.67</v>
+        <v>34.99</v>
       </c>
       <c r="U9" t="n">
-        <v>-30.13</v>
+        <v>69.1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-58.41</v>
+        <v>-18.54</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-27.72</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-53.42</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-19.44</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-12.7</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.91</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.61</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-33.53</v>
+        <v>121.5</v>
       </c>
       <c r="F13" t="n">
-        <v>-45.38</v>
+        <v>34.3</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-58.06</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-105.85</v>
+        <v>-32.29</v>
       </c>
       <c r="L13" t="n">
-        <v>433.79</v>
+        <v>547.46</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-48.68</v>
+        <v>80.65</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>429.64</v>
+        <v>1767.56</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2245,25 +2245,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-59.59</v>
+        <v>44.44</v>
       </c>
       <c r="U13" t="n">
-        <v>-48.96</v>
+        <v>73.61</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-103.32</v>
+        <v>20.11</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.79</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-51.87</v>
+        <v>67.63</v>
       </c>
     </row>
     <row r="14">
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.61</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-94.14</v>
+        <v>-46.87</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-114.17</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.64</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-7.96</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2325,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.65</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.64</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.66</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-8.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-61.15</v>
+        <v>-12.12</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2378,16 +2378,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-44.97</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>54.88</v>
+        <v>130.49</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-43.51</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-42.7</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-41.77</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-46.13</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-42.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2440,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.72</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-25.03</v>
+        <v>23.44</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-42.64</v>
+        <v>76.42</v>
       </c>
       <c r="K16" t="n">
-        <v>-66.3</v>
+        <v>-18.5</v>
       </c>
       <c r="L16" t="n">
-        <v>189.13</v>
+        <v>356.02</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-57.24</v>
+        <v>-19.9</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1398.67</v>
+        <v>3384.61</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2485,25 +2485,25 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-50.28</v>
+        <v>3.83</v>
       </c>
       <c r="U16" t="n">
-        <v>51.67</v>
+        <v>246.47</v>
       </c>
       <c r="V16" t="n">
-        <v>28.53</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-59.48</v>
+        <v>0.91</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.55</v>
+        <v>532.37</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.22</v>
+        <v>128.99</v>
       </c>
     </row>
     <row r="17">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-36</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-31.23</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-24.48</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.81</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2565,25 +2565,25 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-20.59</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-28.06</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-26.78</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.36</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-26.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-22.58</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.8</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-31.4</v>
+        <v>-9.96</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-20.28</v>
+        <v>66.6</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>19.57</v>
+        <v>130.67</v>
       </c>
       <c r="F20" t="n">
-        <v>68.9</v>
+        <v>164.89</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2775,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-37.33</v>
+        <v>-13.12</v>
       </c>
       <c r="K20" t="n">
-        <v>-62.01</v>
+        <v>-30.55</v>
       </c>
       <c r="L20" t="n">
-        <v>94.01</v>
+        <v>218.49</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-13.52</v>
+        <v>84.4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>856.53</v>
+        <v>2042.74</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2805,25 +2805,25 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-14.91</v>
+        <v>80.17</v>
       </c>
       <c r="U20" t="n">
-        <v>-25.17</v>
+        <v>60.84</v>
       </c>
       <c r="V20" t="n">
-        <v>-13.65</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-34.03</v>
+        <v>33.73</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.95</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>-13.89</v>
+        <v>85.58</v>
       </c>
     </row>
     <row r="21">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-82.82</v>
+        <v>7.4</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2858,16 +2858,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-60.36</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>141.46</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-56.39</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.29</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-55.13</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-56.74</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-58.4</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-57.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-42.85</v>
+        <v>32.23</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2935,28 +2935,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-29.89</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-64.85</v>
+        <v>-47.51</v>
       </c>
       <c r="L22" t="n">
-        <v>61.05</v>
+        <v>192.31</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-57.45</v>
+        <v>-30.78</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-64.11</v>
+        <v>-61.91</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.4</v>
+        <v>658.71</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-51.86</v>
+        <v>15.88</v>
       </c>
       <c r="U22" t="n">
-        <v>-55.33</v>
+        <v>5.03</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-61.4</v>
+        <v>-46.93</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>-59.89</v>
+        <v>-35.79</v>
       </c>
     </row>
     <row r="23">
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-87.07</v>
+        <v>-15.12</v>
       </c>
       <c r="F23" t="n">
-        <v>66.95</v>
+        <v>189.04</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3018,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-81.41</v>
+        <v>-22.61</v>
       </c>
       <c r="L23" t="n">
-        <v>-50.17</v>
+        <v>42.22</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-68.57</v>
+        <v>29.16</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.65</v>
+        <v>750.83</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3045,25 +3045,25 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-66.03</v>
+        <v>36.56</v>
       </c>
       <c r="U23" t="n">
-        <v>-64.16</v>
+        <v>46.76</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-81.16</v>
+        <v>-12.17</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-26.91</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>-72.73</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="24">
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-73.14</v>
+        <v>-22.93</v>
       </c>
       <c r="F24" t="n">
-        <v>-41.14</v>
+        <v>58.67</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3095,19 +3095,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-13.19</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-61.61</v>
+        <v>-43.62</v>
       </c>
       <c r="L24" t="n">
-        <v>-24.19</v>
+        <v>87.42</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-52.72</v>
+        <v>53.08</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>216.09</v>
+        <v>1393.7</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3125,25 +3125,25 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-46.54</v>
+        <v>83.88</v>
       </c>
       <c r="U24" t="n">
-        <v>-48.63</v>
+        <v>70.34</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-59.14</v>
+        <v>-7.62</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-26.91</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>-57.01</v>
+        <v>32.88</v>
       </c>
     </row>
     <row r="25">
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-9.28</v>
+        <v>81.69</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3175,19 +3175,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-40.76</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-70.27</v>
+        <v>-25.36</v>
       </c>
       <c r="L25" t="n">
-        <v>55.19</v>
+        <v>260.07</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-52.55</v>
+        <v>34.89</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>179.37</v>
+        <v>850.94</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3205,16 +3205,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-48.13</v>
+        <v>46.79</v>
       </c>
       <c r="U25" t="n">
-        <v>-52.63</v>
+        <v>35.78</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-61.99</v>
+        <v>13.56</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>-56.96</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="26">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-44.75</v>
+        <v>38.02</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3255,28 +3255,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-56.46</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-87.48</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>34.39</v>
+        <v>331.52</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-59.49</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-82.26</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>155.83</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3285,16 +3285,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-48.24</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-72.03</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-28.02</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-71.28</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>-74.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.79</v>
+        <v>79.41</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3335,28 +3335,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-40.19</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-54.02</v>
+        <v>-20.74</v>
       </c>
       <c r="L27" t="n">
-        <v>10.64</v>
+        <v>120.43</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-25.71</v>
+        <v>119.71</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-26.06</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.32</v>
+        <v>1221.61</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3365,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-20.97</v>
+        <v>143.6</v>
       </c>
       <c r="U27" t="n">
-        <v>-31.43</v>
+        <v>73.01</v>
       </c>
       <c r="V27" t="n">
-        <v>-17.48</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-42.94</v>
+        <v>35.34</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>-34.71</v>
+        <v>65.1</v>
       </c>
     </row>
     <row r="28">
@@ -3400,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-9.04</v>
+        <v>87.64</v>
       </c>
       <c r="F28" t="n">
-        <v>14.22</v>
+        <v>90.7</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3415,19 +3415,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-45.32</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-70.11</v>
+        <v>-30.34</v>
       </c>
       <c r="L28" t="n">
-        <v>149.84</v>
+        <v>325.91</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-42.87</v>
+        <v>31.4</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>371.32</v>
+        <v>1082.27</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3445,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-44.28</v>
+        <v>25.3</v>
       </c>
       <c r="U28" t="n">
-        <v>-43.33</v>
+        <v>31.25</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-53.75</v>
+        <v>5.87</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>-47.81</v>
+        <v>20.62</v>
       </c>
     </row>
     <row r="29">
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.39</v>
+        <v>96.94</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3495,28 +3495,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-56.9</v>
+        <v>-4.06</v>
       </c>
       <c r="K29" t="n">
-        <v>-68.01</v>
+        <v>-38.3</v>
       </c>
       <c r="L29" t="n">
-        <v>218.5</v>
+        <v>430.36</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-24.4</v>
+        <v>193.07</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-93.41</v>
+        <v>-123.47</v>
       </c>
       <c r="Q29" t="n">
-        <v>683.97</v>
+        <v>3616.16</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3525,16 +3525,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-9.73</v>
+        <v>303.11</v>
       </c>
       <c r="U29" t="n">
-        <v>-33.6</v>
+        <v>157.78</v>
       </c>
       <c r="V29" t="n">
-        <v>-31.8</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-44.81</v>
+        <v>78.9</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-36.87</v>
+        <v>99.17</v>
       </c>
     </row>
     <row r="30">
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>47.48</v>
+        <v>191.71</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3575,19 +3575,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-38.2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-57.06</v>
+        <v>-26.49</v>
       </c>
       <c r="L30" t="n">
-        <v>18.65</v>
+        <v>140.53</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-13.2</v>
+        <v>85.35</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>854.32</v>
+        <v>2100.76</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3605,25 +3605,25 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-10.66</v>
+        <v>88.16</v>
       </c>
       <c r="U30" t="n">
-        <v>-19.53</v>
+        <v>63.44</v>
       </c>
       <c r="V30" t="n">
-        <v>-6.69</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-29.9</v>
+        <v>38.93</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-55.41</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>3.2</v>
+        <v>124.65</v>
       </c>
     </row>
     <row r="31">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-52.44</v>
+        <v>-14.79</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3655,28 +3655,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-29.66</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-63.04</v>
+        <v>-17.54</v>
       </c>
       <c r="L31" t="n">
-        <v>-39.96</v>
+        <v>4.69</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-56.1</v>
+        <v>6.26</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-10.79</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>670</v>
+        <v>2734.6</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3685,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-61.18</v>
+        <v>-11.03</v>
       </c>
       <c r="U31" t="n">
-        <v>-22.01</v>
+        <v>115.16</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-62.49</v>
+        <v>-23.99</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.02</v>
+        <v>359.42</v>
       </c>
       <c r="Z31" t="n">
-        <v>-26.05</v>
+        <v>101.13</v>
       </c>
     </row>
     <row r="32">
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>99.35</v>
+        <v>264.25</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3735,28 +3735,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-25.43</v>
+        <v>46.98</v>
       </c>
       <c r="K32" t="n">
-        <v>-30.09</v>
+        <v>18.74</v>
       </c>
       <c r="L32" t="n">
-        <v>196.64</v>
+        <v>500.86</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>32.97</v>
+        <v>136.31</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-48.34</v>
+        <v>-48.99</v>
       </c>
       <c r="Q32" t="n">
-        <v>1252.56</v>
+        <v>2771.75</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3765,25 +3765,25 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-12.09</v>
+        <v>48.08</v>
       </c>
       <c r="U32" t="n">
-        <v>107.86</v>
+        <v>314.83</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-11.65</v>
+        <v>55.89</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.32</v>
+        <v>669.04</v>
       </c>
       <c r="Z32" t="n">
-        <v>46.14</v>
+        <v>181.05</v>
       </c>
     </row>
     <row r="33">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-41.43</v>
+        <v>-15.64</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3815,28 +3815,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-112.64</v>
+        <v>-33.14</v>
       </c>
       <c r="K33" t="n">
-        <v>-88.81</v>
+        <v>-88.6</v>
       </c>
       <c r="L33" t="n">
-        <v>-27.54</v>
+        <v>57.54</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-65.14</v>
+        <v>-29.26</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-55.85</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>614.23</v>
+        <v>2203.42</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3845,25 +3845,25 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-79.29</v>
+        <v>-78.17</v>
       </c>
       <c r="U33" t="n">
-        <v>0.16</v>
+        <v>194.53</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-69.87</v>
+        <v>-11.8</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.48</v>
+        <v>296.05</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34">
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.87</v>
+        <v>361.88</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-35.53</v>
+        <v>34.29</v>
       </c>
       <c r="K34" t="n">
-        <v>-49.11</v>
+        <v>-30.67</v>
       </c>
       <c r="L34" t="n">
-        <v>113.54</v>
+        <v>306.85</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>23.57</v>
+        <v>184.66</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-51.88</v>
+        <v>-76.9</v>
       </c>
       <c r="Q34" t="n">
-        <v>428.81</v>
+        <v>1471.04</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3925,25 +3925,25 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-34.02</v>
+        <v>-0.71</v>
       </c>
       <c r="U34" t="n">
-        <v>25.67</v>
+        <v>236.16</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-29.55</v>
+        <v>11.46</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>255.49</v>
+        <v>1368.18</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.45</v>
+        <v>129.2</v>
       </c>
     </row>
     <row r="35">
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-16.96</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>65.04</v>
+        <v>255.75</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3975,28 +3975,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-12.26</v>
+        <v>158.13</v>
       </c>
       <c r="K35" t="n">
-        <v>-29.29</v>
+        <v>20.98</v>
       </c>
       <c r="L35" t="n">
-        <v>123.1</v>
+        <v>326.43</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5.41</v>
+        <v>123.8</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-37.68</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>741.62</v>
+        <v>2474.28</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-22.96</v>
+        <v>34.9</v>
       </c>
       <c r="U35" t="n">
-        <v>68.65</v>
+        <v>359.69</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>18.16</v>
+        <v>146.55</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.47</v>
+        <v>2170.12</v>
       </c>
       <c r="Z35" t="n">
-        <v>46.27</v>
+        <v>260.48</v>
       </c>
     </row>
     <row r="36">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.3</v>
+        <v>99.31</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-12.83</v>
+        <v>119.17</v>
       </c>
       <c r="K36" t="n">
-        <v>-61.01</v>
+        <v>-0.16</v>
       </c>
       <c r="L36" t="n">
-        <v>135.94</v>
+        <v>276.14</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-36.27</v>
+        <v>44.22</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-68.78</v>
+        <v>-49.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1686.62</v>
+        <v>3430.23</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4085,25 +4085,25 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-55.81</v>
+        <v>7.41</v>
       </c>
       <c r="U36" t="n">
-        <v>26.77</v>
+        <v>168.85</v>
       </c>
       <c r="V36" t="n">
-        <v>-2.59</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>-48.54</v>
+        <v>21.71</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>115.69</v>
+        <v>783.17</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.1</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="37">
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>148.51</v>
+        <v>196.88</v>
       </c>
       <c r="F37" t="n">
-        <v>89.1</v>
+        <v>189.33</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-53.37</v>
+        <v>3.16</v>
       </c>
       <c r="K37" t="n">
-        <v>-72.68</v>
+        <v>-30.9</v>
       </c>
       <c r="L37" t="n">
-        <v>7.58</v>
+        <v>72.65</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-12.97</v>
+        <v>97.71</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1269.04</v>
+        <v>2653.22</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-53.26</v>
+        <v>17.27</v>
       </c>
       <c r="U37" t="n">
-        <v>-22.86</v>
+        <v>75.45</v>
       </c>
       <c r="V37" t="n">
-        <v>-45.05</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-59.67</v>
+        <v>0.2</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.28</v>
+        <v>427</v>
       </c>
       <c r="Z37" t="n">
-        <v>27.92</v>
+        <v>184.28</v>
       </c>
     </row>
     <row r="38">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-16.16</v>
+        <v>54.15</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4215,19 +4215,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-36.52</v>
+        <v>91.88</v>
       </c>
       <c r="K38" t="n">
-        <v>-76.39</v>
+        <v>-25.66</v>
       </c>
       <c r="L38" t="n">
-        <v>154.35</v>
+        <v>294.63</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-49.07</v>
+        <v>-2.29</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>999.82</v>
+        <v>3220.75</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4245,25 +4245,25 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-49.76</v>
+        <v>4.34</v>
       </c>
       <c r="U38" t="n">
-        <v>17.53</v>
+        <v>198.52</v>
       </c>
       <c r="V38" t="n">
-        <v>35.72</v>
+        <v>322</v>
       </c>
       <c r="W38" t="n">
-        <v>-40.52</v>
+        <v>49.29</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>61.08</v>
+        <v>556.45</v>
       </c>
       <c r="Z38" t="n">
-        <v>-13.83</v>
+        <v>110.01</v>
       </c>
     </row>
     <row r="39">
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-33.87</v>
+        <v>59.86</v>
       </c>
       <c r="F39" t="n">
-        <v>-29.04</v>
+        <v>34.84</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4295,19 +4295,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-87.73</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-59.76</v>
+        <v>-19.14</v>
       </c>
       <c r="L39" t="n">
-        <v>-20.51</v>
+        <v>64.48</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-51.32</v>
+        <v>-2</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>361.5</v>
+        <v>1724.2</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -4325,25 +4325,25 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-47.94</v>
+        <v>16.22</v>
       </c>
       <c r="U39" t="n">
-        <v>-24.11</v>
+        <v>126.71</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>-64.05</v>
+        <v>-32.42</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-59.89</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>-49.52</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="40">
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-18.95</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-19.21</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-10.7</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-9.8</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-9.78</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-14.34</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4538,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-20.28</v>
+        <v>-4.41</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-19.79</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.69</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4565,25 +4565,25 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-20.69</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>-10.72</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>-19.71</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>-7.84</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>-13.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-9.65</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-9.67</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-35.21</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-49.6</v>
+        <v>8.26</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-35.1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>-26.95</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>-35.26</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>-47.26</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>-35.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-31.16</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-52.94</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-75.25</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>-75.02</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>-74.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5240,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-51.84</v>
+        <v>101.45</v>
       </c>
       <c r="F51" t="n">
-        <v>55.36</v>
+        <v>323.22</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-38.74</v>
+        <v>129.69</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>974.86</v>
+        <v>3572.28</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5285,25 +5285,25 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-62.35</v>
+        <v>36.3</v>
       </c>
       <c r="U51" t="n">
-        <v>-82.33</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>-48.96</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>-52.26</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>-67.1</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="52">
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-26.71</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-27.53</v>
+        <v>96.85</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-26.64</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>-11.67</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>-26.81</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>-26.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.42</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
